--- a/docs/assets/Tables.xlsx
+++ b/docs/assets/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Обучение\mkdocs\project\docs\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00F5E64-BCFB-493B-9D0F-13D623288BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD51F7E-8BE6-4E77-8857-DB2FA988ECA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD698DF6-4024-46AF-A1D9-13F852030986}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DD698DF6-4024-46AF-A1D9-13F852030986}"/>
   </bookViews>
   <sheets>
     <sheet name="Глоссарий" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="129">
   <si>
     <t>ЛК</t>
   </si>
@@ -584,21 +584,6 @@
 Система</t>
   </si>
   <si>
-    <t>1. Пользователь переходит на страницу регистрации клиентов. 
-2. Система выводит список типов бизнеса. 
-3. Пользователь выбирает тип бизнеса из предложенного списка и нажимает кнопку - N1. 
-4. Система выводит список стандартных тарифов, последний пункт списка - N2. 
-5. Пользователь выбирает стандартный тариф или N2 и нажимает кнопку - N1. 
-6. Система выводит форму ввода контактных данных. 
-7. Пользователь заполняет форму и нажимает кнопку - N1. 
-8. Система проверяет корректность заполненной информации. 
-9. Система выводит всю введенную пользователем информацию для проверки. На странице отображаются кнопки N3 и N4. 
-    1. Если введенная пользователем информация некорректная - AF1. 
-10. Пользователь нажимает кнопку - N3. Конец сценария. 
-    1. Если пользователь вышел из приложения и не нажал кнопку N3 - AF2. 
-    2. Если пользователь захотел изменить введенную информацию - AF3.</t>
-  </si>
-  <si>
     <t>1. Пользователь заполняет на странице данные для регистрации: имя пользователя, пароль, номер телефона. 
 2. Пользователь нажимает кнопку - N1. 
 3. Система проверяет наличие в системе пользователей с такими же номером телефона.
@@ -832,6 +817,27 @@
   <si>
     <t>Wireframe
 Вайрфрейм</t>
+  </si>
+  <si>
+    <t>1. Пользователь переходит на страницу регистрации клиентов. 
+2. Система выводит список типов бизнеса. 
+3. Пользователь выбирает тип бизнеса из предложенного списка и нажимает кнопку - N1. 
+4. Система выводит список стандартных тарифов. 
+5. Пользователь выбирает стандартный тариф или N2 и нажимает кнопку - N1. 
+6. Система выводит форму ввода контактных данных. 
+7. Пользователь заполняет форму и нажимает кнопку - N1. 
+8. Система проверяет корректность заполненной информации. 
+9. Система выводит всю введенную пользователем информацию для проверки. На странице отображаются кнопки N3 и N4. 
+    1. Если введенная пользователем информация некорректная - AF1. 
+10. Пользователь нажимает кнопку - N3. Конец сценария. 
+    1. Если пользователь вышел из приложения и не нажал кнопку N3 - AF2. 
+    2. Если пользователь захотел изменить введенную информацию - AF3.</t>
+  </si>
+  <si>
+    <t>Диаграмма</t>
+  </si>
+  <si>
+    <t>![](../diagrams/out/auth.svg){ width="100" }</t>
   </si>
 </sst>
 </file>
@@ -865,7 +871,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -888,11 +894,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -914,6 +931,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1230,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866CA17F-0157-4937-AFFA-FC03E0299570}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1354,10 +1377,10 @@
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1567,7 +1590,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -1575,7 +1598,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1583,7 +1606,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1593,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923B41E1-2C42-41D0-B81E-B9EE8C740F45}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,7 +1633,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +1641,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1634,7 +1657,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1642,7 +1665,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1650,7 +1673,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1658,7 +1681,15 @@
         <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1685,7 +1716,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1724,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1709,7 +1740,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1717,7 +1748,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -1725,7 +1756,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,7 +1764,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1791,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1768,7 +1799,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1784,7 +1815,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -1792,7 +1823,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1800,7 +1831,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1808,7 +1839,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1865,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1842,7 +1873,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1858,7 +1889,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -1866,7 +1897,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1874,7 +1905,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1882,7 +1913,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +1940,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1917,7 +1948,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1933,7 +1964,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -1941,7 +1972,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1949,7 +1980,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1961,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7AC94C-EE25-49E7-AF69-50456E05F153}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,7 +2040,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -2111,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EF91C0-D823-479C-ADD0-F74F76A432B2}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,6 +2208,14 @@
       </c>
       <c r="B7" s="3" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/Tables.xlsx
+++ b/docs/assets/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Обучение\mkdocs\project\docs\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD51F7E-8BE6-4E77-8857-DB2FA988ECA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC6714F-B117-4151-ACC4-3E7628E9BBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DD698DF6-4024-46AF-A1D9-13F852030986}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="14" xr2:uid="{DD698DF6-4024-46AF-A1D9-13F852030986}"/>
   </bookViews>
   <sheets>
     <sheet name="Глоссарий" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
   <si>
     <t>ЛК</t>
   </si>
@@ -838,6 +838,9 @@
   </si>
   <si>
     <t>![](../diagrams/out/auth.svg){ width="100" }</t>
+  </si>
+  <si>
+    <t>![](../diagrams/out/booking_table.svg){ width="100" }</t>
   </si>
 </sst>
 </file>
@@ -1774,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159E9D95-E196-43CA-936B-39EC843CC12D}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,6 +1843,14 @@
       </c>
       <c r="B7" s="3" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1992,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7AC94C-EE25-49E7-AF69-50456E05F153}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2145,7 +2156,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/assets/Tables.xlsx
+++ b/docs/assets/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Обучение\mkdocs\project\docs\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC6714F-B117-4151-ACC4-3E7628E9BBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFC7107-2802-49E2-AB94-4F3529CDDF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="14" xr2:uid="{DD698DF6-4024-46AF-A1D9-13F852030986}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="132">
   <si>
     <t>ЛК</t>
   </si>
@@ -841,6 +841,12 @@
   </si>
   <si>
     <t>![](../diagrams/out/booking_table.svg){ width="100" }</t>
+  </si>
+  <si>
+    <t>![](../diagrams/out/registration_client.svg){ width="100" }</t>
+  </si>
+  <si>
+    <t>![](../diagrams/out/registration_user.svg){ width="100" }</t>
   </si>
 </sst>
 </file>
@@ -1544,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CC5513-12F9-4A3B-82E7-7A4D610CEEE8}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,6 +1616,14 @@
       </c>
       <c r="B7" s="5" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1780,7 +1794,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,10 +2015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7AC94C-EE25-49E7-AF69-50456E05F153}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,6 +2082,14 @@
       </c>
       <c r="B7" s="5" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/Tables.xlsx
+++ b/docs/assets/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Обучение\mkdocs\project\docs\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFC7107-2802-49E2-AB94-4F3529CDDF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEC2BE4-C862-47E6-9196-A6C58AE0256B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="14" xr2:uid="{DD698DF6-4024-46AF-A1D9-13F852030986}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD698DF6-4024-46AF-A1D9-13F852030986}"/>
   </bookViews>
   <sheets>
     <sheet name="Глоссарий" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,11 @@
     <sheet name="UC-16" sheetId="15" r:id="rId15"/>
     <sheet name="UC-19" sheetId="16" r:id="rId16"/>
     <sheet name="UC-20" sheetId="17" r:id="rId17"/>
+    <sheet name="TC-1" sheetId="18" r:id="rId18"/>
+    <sheet name="TC-2" sheetId="19" r:id="rId19"/>
+    <sheet name="TC-3" sheetId="20" r:id="rId20"/>
+    <sheet name="TC-4" sheetId="21" r:id="rId21"/>
+    <sheet name="TC-5" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="209">
   <si>
     <t>ЛК</t>
   </si>
@@ -847,6 +852,239 @@
   </si>
   <si>
     <t>![](../diagrams/out/registration_user.svg){ width="100" }</t>
+  </si>
+  <si>
+    <t>Описание шага</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Шаг</t>
+  </si>
+  <si>
+    <t>Пользователь видит форму регистрации клиентов</t>
+  </si>
+  <si>
+    <t>В поле "Тип бизнеса" из выпадающего списка выбрать необходимый тип бизнеса</t>
+  </si>
+  <si>
+    <t>1. Пользователь видит выбранный тип бизнеса.
+2. Становится доступным для выбора выпадающий список "Тарифы"</t>
+  </si>
+  <si>
+    <t>В поле "Тариф" из выпадающего списка выбрать необходимый тариф</t>
+  </si>
+  <si>
+    <t>Пользователь видит выбранный тариф</t>
+  </si>
+  <si>
+    <t>Заполнить информацию о компании</t>
+  </si>
+  <si>
+    <t>Пользователь видит заполненную информацию о компании</t>
+  </si>
+  <si>
+    <t>Заполнить логин (email) и пароль</t>
+  </si>
+  <si>
+    <t>Пользователь видит заполненные логин и пароль</t>
+  </si>
+  <si>
+    <t>Нажать кнопку регистрации</t>
+  </si>
+  <si>
+    <t>Выводится окно с подтверждения регистрации</t>
+  </si>
+  <si>
+    <t>Нажать кнопку подтверждения регистрации</t>
+  </si>
+  <si>
+    <t>Выполняется переход в личный кабинет клиента</t>
+  </si>
+  <si>
+    <t>Открыть форму регистрации клиентов [WF10](../uiux.md#wf10)</t>
+  </si>
+  <si>
+    <t>Негативный сценарий</t>
+  </si>
+  <si>
+    <t>Заполнить информацию о компании не корректно и/или не полностью</t>
+  </si>
+  <si>
+    <t>Выводится окно с сообщением о некорректном заполнении формы регистрации</t>
+  </si>
+  <si>
+    <t>Закрыть уведомлени о некорректном заполнении</t>
+  </si>
+  <si>
+    <t>Скорректировать данные на форме регистрации</t>
+  </si>
+  <si>
+    <t>Открыть форму регистрации пользователей [WF4](../uiux.md#wf4)</t>
+  </si>
+  <si>
+    <t>Пользователь видит форму регистрации пользователей</t>
+  </si>
+  <si>
+    <t>Заполнить логин (номер телефона) и пароль</t>
+  </si>
+  <si>
+    <t>Выводится окно подтверждения регистрации по смс</t>
+  </si>
+  <si>
+    <t>Ввести смс-код</t>
+  </si>
+  <si>
+    <t>Выводится окно c уведомленеим, что пользователь с таким номером уже зарегистрирован</t>
+  </si>
+  <si>
+    <t>Закрыть окно с уведомлением</t>
+  </si>
+  <si>
+    <t>Открыть форму аутентификации клиентов [WF3](../uiux.md#wf3)</t>
+  </si>
+  <si>
+    <t>Открыть форму аутентификации клиента [WF3](../uiux.md#wf3)</t>
+  </si>
+  <si>
+    <t>Пользователь видит форму аутентификации клиента</t>
+  </si>
+  <si>
+    <t>Нажать кнопку аутентификации</t>
+  </si>
+  <si>
+    <t>Выводится сообщение об ошибке аутентификации</t>
+  </si>
+  <si>
+    <t>Нажать кнопку восстановления пароля</t>
+  </si>
+  <si>
+    <t>Выводится диалоговое окно восстановления пароля</t>
+  </si>
+  <si>
+    <t>Ввести в диалоговое окно email, указанный при регистрации</t>
+  </si>
+  <si>
+    <t>Пользователь видит форму аутентификации</t>
+  </si>
+  <si>
+    <t>Пользователю на указанный email приходит соощени со ссылкой на восстановление пароля</t>
+  </si>
+  <si>
+    <t>Нажать кнопку отправки сообщения для воостановления пароля</t>
+  </si>
+  <si>
+    <t>Перейти по ссылке для восстановления пароля</t>
+  </si>
+  <si>
+    <t>Выводится окно для ввода нового пароля</t>
+  </si>
+  <si>
+    <t>Ввести новый пароль</t>
+  </si>
+  <si>
+    <t>Нажать кнопку сохранения нового пароля</t>
+  </si>
+  <si>
+    <t>Открыть форму аутентификации пользователя [WF3](../uiux.md#wf3)</t>
+  </si>
+  <si>
+    <t>Пользователь видит форму регистрации</t>
+  </si>
+  <si>
+    <t>Ввести в диалоговое окно номер телефона, указанный при регистрации</t>
+  </si>
+  <si>
+    <t>1. Пользователю на указанный номер телефона приходит смс с кодом восстановления пароля
+2. Выводится диалоговое окно для ввода смс-кода</t>
+  </si>
+  <si>
+    <t>В диалоговом окне ввести смс-код</t>
+  </si>
+  <si>
+    <t>Выполняется переход в личный кабинет пользователя</t>
+  </si>
+  <si>
+    <t>Пользователь видит форму бронирования столика с незаполненными полями</t>
+  </si>
+  <si>
+    <t>Нажать на иконку календаря в поле выбора даты начала бронирования</t>
+  </si>
+  <si>
+    <t>Рядом с полем выбора даты начала бронирования отображается окно с календарем</t>
+  </si>
+  <si>
+    <t>В календаре выбрать дату начала бронирования</t>
+  </si>
+  <si>
+    <t>Окно календаря закрывается. В поле выбора даты начала бронирования отображается выбранная дата</t>
+  </si>
+  <si>
+    <t>Ввести время начала бронирования</t>
+  </si>
+  <si>
+    <t>В поле времени начала бронирования отображается введенное время</t>
+  </si>
+  <si>
+    <t>Нажать на иконку календаря в поле выбора даты окончания бронирования</t>
+  </si>
+  <si>
+    <t>Рядом с полем выбора даты окончания бронирования отображается окно с календарем</t>
+  </si>
+  <si>
+    <t>В календаре выбрать дату окончания бронирования</t>
+  </si>
+  <si>
+    <t>Окно календаря закрывается. В поле выбора даты окончания бронирования отображается выбранная дата</t>
+  </si>
+  <si>
+    <t>Ввести время окончания бронирования</t>
+  </si>
+  <si>
+    <t>В поле времени окончания бронирования отображается введенное время</t>
+  </si>
+  <si>
+    <t>В списке столиков выбрать столики для бронирования</t>
+  </si>
+  <si>
+    <t>Выбраны столики для бронирования</t>
+  </si>
+  <si>
+    <t>Нажать кнопку бронирования</t>
+  </si>
+  <si>
+    <t>Отображается уведомление о подтверждении бронирования</t>
+  </si>
+  <si>
+    <t>Открыть форму бронирования столика [WF7](../uiux.md#wf7)</t>
+  </si>
+  <si>
+    <t>Подтвердить бронирование</t>
+  </si>
+  <si>
+    <t>Бронирование создано</t>
+  </si>
+  <si>
+    <t>Ввести вручную дату начала бронирования</t>
+  </si>
+  <si>
+    <t>В поле выбора даты начала бронирования отображается веденная дата</t>
+  </si>
+  <si>
+    <t>Ввести вручную дату окончания бронирования</t>
+  </si>
+  <si>
+    <t>В поле выбора даты окончания бронирования отображается веденная дата</t>
+  </si>
+  <si>
+    <t>Вместо списка столиков отображается уведомление об отсутствии свободных столиков за выбранный период</t>
+  </si>
+  <si>
+    <t>Ввести новое время начала и окончания бронирования</t>
+  </si>
+  <si>
+    <t>Отображается новое время начала и окончания бронирования</t>
   </si>
 </sst>
 </file>
@@ -918,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -945,6 +1183,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1262,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866CA17F-0157-4937-AFFA-FC03E0299570}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1793,7 +2040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159E9D95-E196-43CA-936B-39EC843CC12D}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2007,6 +2254,390 @@
       <c r="B6" s="3" t="s">
         <v>123</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27833824-C9BE-45A8-B39F-10473F22A861}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>2</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>3</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>5</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>6</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>7</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>8</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>9</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>10</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDF9B92-A76E-486E-A795-997278F04F51}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2098,6 +2729,646 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BB7BA6-9767-4EFB-8133-7C332519FD09}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>5</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>8</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>9</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC210FE-1754-47BC-9024-42331658E390}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>5</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>8</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>9</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AC45AD-97D1-44F6-9D93-DE4E0A1C836D}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>3</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>4</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>5</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>6</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>7</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>8</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>9</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D976047A-512D-4098-8506-3245D7EEE4F9}">
   <dimension ref="A1:B7"/>
